--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Policy No</t>
   </si>
@@ -64,12 +64,37 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>SS00256539</t>
+  </si>
+  <si>
+    <t>IncreaseSumAssured</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Safrican Just Funeral (3000)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Coments</t>
+  </si>
+  <si>
+    <t>2022/04/13 19:10:26</t>
+  </si>
+  <si>
+    <t>2022/04/13 19:10:46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -454,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -462,16 +487,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -506,6 +531,70 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C28EF-0DF1-468E-BF4D-2A8ACEFC732F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0018E3D2-7830-4B67-B25D-A01DD9D785B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="1400" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Policy No</t>
   </si>
@@ -64,37 +64,12 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>SS00256539</t>
-  </si>
-  <si>
-    <t>IncreaseSumAssured</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Safrican Just Funeral (3000)</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Coments</t>
-  </si>
-  <si>
-    <t>2022/04/13 19:10:26</t>
-  </si>
-  <si>
-    <t>2022/04/13 19:10:46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,24 +454,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="K2" sqref="A2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.1796875" collapsed="true"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -531,70 +506,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0018E3D2-7830-4B67-B25D-A01DD9D785B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3928-BCFD-4332-836B-65A68AE65E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,13 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,21 +458,22 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:K8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>Policy No</t>
   </si>
@@ -64,12 +64,52 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022/04/21 13:51:40</t>
+  </si>
+  <si>
+    <t>2022/04/21 13:51:41</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:44:35</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:44:37</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:46:40</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:46:41</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:48:17</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:50:04</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:52:52</t>
+  </si>
+  <si>
+    <t>2022/04/21 15:57:15</t>
+  </si>
+  <si>
+    <t>2022/04/22 10:22:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -463,17 +503,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.453125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="18.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="10.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="17.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="16.08984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -508,6 +548,149 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E697642\Documents\GitHub\ILR_Automation_TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BD3928-BCFD-4332-836B-65A68AE65E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06694CB3-24F7-4060-B3E8-54369310434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy-Servicing" sheetId="12" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Policy No</t>
   </si>
@@ -66,50 +66,182 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>results</t>
+    <t>SS00878783</t>
+  </si>
+  <si>
+    <t>AddRole_NextMonth</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2022/04/21 13:51:40</t>
-  </si>
-  <si>
-    <t>2022/04/21 13:51:41</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:44:35</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:44:37</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:46:40</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:46:41</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:48:17</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:50:04</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:52:52</t>
-  </si>
-  <si>
-    <t>2022/04/21 15:57:15</t>
-  </si>
-  <si>
-    <t>2022/04/22 10:22:25</t>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":" //*[@id='frmSubCbmre']/tbody/tr[4]/td[4]"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, findElement {using=xpath, value= //*[@id='frmSubCbmre']/tbody/tr[4]/td[4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:41:07</t>
+  </si>
+  <si>
+    <t>SS00878781</t>
+  </si>
+  <si>
+    <t>ReInstate</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='frmReason']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, findElement {using=name, value=frmReason}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:05</t>
+  </si>
+  <si>
+    <t>SS00000451</t>
+  </si>
+  <si>
+    <t>AddRolePlayer</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementClickInterceptedException: element click intercepted: Element &lt;a name="alf-ICF8_00000222" class="clMnuTVlink TDlink" href="javascript:fnHREF('?run=cbcts','','mainWindow\x3Dyes','712.674','','_self','yes');" target="_self" title="" onclick="event.preventDefault(); TREES['0'].select(770);;fnHREF('?run=cbcts','','mainWindow\x3Dyes','712.674','','_self','yes');"&gt;...&lt;/a&gt; is not clickable at point (145, 460). Other element would receive the click: &lt;div id="TMAnchor" style="position: absolute; width: 100%; height: 100%; top: 0px; left: 0px; visibility: visible;"&gt;&lt;/div&gt;
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, clickElement {id=28716c51-9100-4370-9520-4bd83098e2e7}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (d9e7610d3827c627c370d8dd76fa540c)] -&gt; name: alf-ICF8_00000222]
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:08</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:13</t>
+  </si>
+  <si>
+    <t>SF00000041</t>
+  </si>
+  <si>
+    <t>ChangeCollectionMethod</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:17</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:20</t>
+  </si>
+  <si>
+    <t>SS20220149</t>
+  </si>
+  <si>
+    <t>ChangeLifeAssured</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:23</t>
+  </si>
+  <si>
+    <t>SF00000375</t>
+  </si>
+  <si>
+    <t>IncreaseSumAssured</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:27</t>
+  </si>
+  <si>
+    <t>SS00878782</t>
+  </si>
+  <si>
+    <t>PostDatedDowngrade</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:42:30</t>
+  </si>
+  <si>
+    <t>PostDatedUpgrade</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='frmCbmcc']/tbody/tr[8]/td[4]"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, findElement {using=xpath, value=//*[@id='frmCbmcc']/tbody/tr[8]/td[4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:43:14</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='btncbmcc29']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, findElement {using=name, value=btncbmcc29}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:44:04</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.UnhandledAlertException: unexpected alert open: {Alert text : There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.}
+  (Session info: chrome=90.0.4430.72): There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30FYP5', ip: '192.168.1.68', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d9e7610d3827c627c370d8dd76fa540c, findElement {using=id, value=t0_749}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992127\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:65003}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:65003/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d9e7610d3827c627c370d8dd76fa540c</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:46:38</t>
+  </si>
+  <si>
+    <t>CancelPolicy</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>2022/04/25 14:47:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,25 +627,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="18.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="10.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="17.1796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="16.08984375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="14.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="12.453125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.08984375" style="4" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="14.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.453125" style="4" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="8.7265625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -548,147 +680,673 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="I47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="J47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>22</v>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Documents\GitHub\ILR_Automation_TestSuite\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>Policy No</t>
   </si>
@@ -237,11 +237,107 @@
   <si>
     <t>2022/04/25 14:47:45</t>
   </si>
+  <si>
+    <t>org.openqa.selenium.UnhandledAlertException: unexpected alert open: {Alert text : There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.}
+  (Session info: chrome=90.0.4430.72): There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [66961364bc756905109fddaf732e7265, findElement {using=xpath, value=//*[@id='CntContentsDiv4']/table/tbody/tr[2]/td[4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:50917}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:50917/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 66961364bc756905109fddaf732e7265</t>
+  </si>
+  <si>
+    <t>2022/04/26 07:45:57</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: chrome not reachable
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [554cd2fb3054802d95343fc02974ef98, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:51198}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:51198/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 554cd2fb3054802d95343fc02974ef98</t>
+  </si>
+  <si>
+    <t>2022/04/26 07:48:27</t>
+  </si>
+  <si>
+    <t>2022/04/26 07:52:02</t>
+  </si>
+  <si>
+    <t>java.lang.ClassCastException: class org.openqa.selenium.chrome.ChromeDriver cannot be cast to class src.main.java.PolicyServicing.JavaScriptExecutor (org.openqa.selenium.chrome.ChromeDriver and src.main.java.PolicyServicing.JavaScriptExecutor are in unnamed module of loader 'app')</t>
+  </si>
+  <si>
+    <t>2022/04/26 07:56:19</t>
+  </si>
+  <si>
+    <t>2022/04/26 07:58:28</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:01:28</t>
+  </si>
+  <si>
+    <t>java.lang.NullPointerException: Cannot invoke "Object.toString()" because the return value of "java.util.Dictionary.get(Object)" is null</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:05:07</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:16:02</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:20:59</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d45ab11c0ec4a92f99c262d3b144d242, findElement {using=xpath, value=//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:61700}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:61700/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: d45ab11c0ec4a92f99c262d3b144d242</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:25:12</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:26:46</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:30:07</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='frmCbmcc']/tbody/tr[8]/td[4]"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [667e9258fcf55749d0ff2464d8b78ad9, findElement {using=xpath, value=//*[@id='frmCbmcc']/tbody/tr[8]/td[4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:57300}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:57300/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 667e9258fcf55749d0ff2464d8b78ad9</t>
+  </si>
+  <si>
+    <t>2022/04/26 08:41:17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
@@ -635,17 +731,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.36328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.81640625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.08984375" style="4" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.453125" style="4" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.1796875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="8.7265625" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="10.81640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="18.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="10.08984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="17.1796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="4" width="23.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="4" width="16.08984375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="4" width="14.453125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="4" width="12.453125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="18.1796875" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
@@ -1349,6 +1445,296 @@
         <v>48</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" t="s">
+        <v>51</v>
+      </c>
+      <c r="J61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" t="s">
+        <v>62</v>
+      </c>
+      <c r="J69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>33</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="120">
   <si>
     <t>Policy No</t>
   </si>
@@ -331,6 +331,343 @@
   </si>
   <si>
     <t>2022/04/26 08:41:17</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: chrome not reachable
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e103781858f7bb0bcd525826b7179ab5, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:58597}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58597/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e103781858f7bb0bcd525826b7179ab5</t>
+  </si>
+  <si>
+    <t>2022/04/26 09:20:06</t>
+  </si>
+  <si>
+    <t>2022/04/26 09:24:25</t>
+  </si>
+  <si>
+    <t>2022/04/26 09:24:31</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:15:50</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [da4693f0b8b83e15d7841ab5ccbc15cf, findElement {using=xpath, value=//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:56879}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56879/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: da4693f0b8b83e15d7841ab5ccbc15cf</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:16:06</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='2000175333.8']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2dd8d3e65b1d516260ad10eb59753fba, findElement {using=name, value=2000175333.8}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62074}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62074/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 2dd8d3e65b1d516260ad10eb59753fba</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:23:23</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1e22b110194ea62a5ec3bb13d02310d1, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62528}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62528/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 1e22b110194ea62a5ec3bb13d02310d1</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:23:54</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [58e0525ef77b92d5563ef7a360d6c02a, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62651}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62651/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 58e0525ef77b92d5563ef7a360d6c02a</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:24:37</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [cdbfff8d2dd04f474b145e6fdd4efea7, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62888}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62888/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: cdbfff8d2dd04f474b145e6fdd4efea7</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:29:23</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [4fba0c23f51e53943da7b5a2d6247f62, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:55066}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55066/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 4fba0c23f51e53943da7b5a2d6247f62</t>
+  </si>
+  <si>
+    <t>2022/04/26 11:43:40</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3ecc52cfd411469d2d68d0c71bd64ff0, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:56117}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56117/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 3ecc52cfd411469d2d68d0c71bd64ff0</t>
+  </si>
+  <si>
+    <t>2022/04/26 12:00:53</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='CBWeb']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [20dba91e30092b299fcaa237a3284af0, findElement {using=name, value=CBWeb}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:56273}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56273/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 20dba91e30092b299fcaa237a3284af0</t>
+  </si>
+  <si>
+    <t>2022/04/26 12:01:54</t>
+  </si>
+  <si>
+    <t>2022/04/26 12:04:18</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='btncbmcc11']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0a12624c36115fb6f0584731bc07f485, findElement {using=name, value=btncbmcc11}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:56651}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:56651/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 0a12624c36115fb6f0584731bc07f485</t>
+  </si>
+  <si>
+    <t>2022/04/26 12:30:43</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.InvalidElementStateException: invalid element state
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [746f4558287f9da8ccdb44047dc34f17, clearElement {id=7e410588-3223-43fd-8269-ab29c93bbb5c}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:55072}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:55072/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (746f4558287f9da8ccdb44047dc34f17)] -&gt; name: frmCCStartDate]
+Session ID: 746f4558287f9da8ccdb44047dc34f17</t>
+  </si>
+  <si>
+    <t>2022/04/26 12:43:28</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"css selector","selector":"*[name='frmRoleObj']"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ac487c4636723425bb42a30a3b216caa, findElement {using=name, value=frmRoleObj}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62316}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62316/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: ac487c4636723425bb42a30a3b216caa</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:15:16</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e7f71b9fc3de351ee5cb9c7ac3ba4233, findElement {using=xpath, value=//*[@id='AppArea']/table[2]/tbody/tr[2]/td[1]/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:62504}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:62504/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: e7f71b9fc3de351ee5cb9c7ac3ba4233</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:20:02</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:31:47</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: chrome not reachable
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [704bf1a3df6d749398e4508f07c44611, findElement {using=xpath, value=//*[@id='GBLbl-5']/span/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:63161}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63161/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 704bf1a3df6d749398e4508f07c44611</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:37:24</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.InvalidSelectorException: invalid selector: An invalid or illegal selector was specified
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#invalid_selector_exception
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fe37595b61abc0a61117b11af6adfe8e, findElement {using=name, value=//*[@id='frmCbmcc']/tbody/tr[6]/td[2]/select/option}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:49849}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49849/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: fe37595b61abc0a61117b11af6adfe8e</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:48:29</t>
+  </si>
+  <si>
+    <t>2022/04/26 13:52:01</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='t0_701']/a"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [765b67289ad9d728d892eac28790b32c, findElement {using=xpath, value=//*[@id='t0_701']/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:64189}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:64189/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 765b67289ad9d728d892eac28790b32c</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:08:29</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='t0_701']/a"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [8022ab2448da9afca6be89710b5a0984, findElement {using=xpath, value=//*[@id='t0_701']/a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:49708}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:49708/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 8022ab2448da9afca6be89710b5a0984</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:18:13</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='frmCbmcc']/tbody/tr[8]/td[4]"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [24637c8b8cf2af2e869aae0faba874e3, findElement {using=xpath, value=//*[@id='frmCbmcc']/tbody/tr[8]/td[4]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:58992}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:58992/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: 24637c8b8cf2af2e869aae0faba874e3</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:19:37</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [e19680a4cd0d60f7f104b1fa0dadabcf, clickElement {id=b8ed1507-345e-4469-8947-78e9522f0601}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:60053}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60053/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (e19680a4cd0d60f7f104b1fa0dadabcf)] -&gt; xpath: //*[@id='m0t0']/tbody/tr[1]/td/div/div[3]/a/img]
+Session ID: e19680a4cd0d60f7f104b1fa0dadabcf</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:32:33</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.ElementNotInteractableException: element not interactable
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [69773cdca6b1092cf346495ac80536a1, clickElement {id=e03f9948-b6e8-41da-b589-7d1292672451}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:60706}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60706/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (69773cdca6b1092cf346495ac80536a1)] -&gt; xpath: //*[@id='m0t0']/tbody/tr[1]/td/div/div[3]/a/img]
+Session ID: 69773cdca6b1092cf346495ac80536a1</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:37:46</t>
+  </si>
+  <si>
+    <t>2022/04/26 14:49:16</t>
+  </si>
+  <si>
+    <t>2022/04/26 15:06:01</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.InvalidElementStateException: invalid element state
+  (Session info: chrome=90.0.4430.72)
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [5eead9b170f993789c044c89e219a2fc, clearElement {id=22c7e4cb-d63a-45f3-87b5-814ee7a57f0a}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:63104}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63104/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (5eead9b170f993789c044c89e219a2fc)] -&gt; name: frmCCStartDate]
+Session ID: 5eead9b170f993789c044c89e219a2fc</t>
+  </si>
+  <si>
+    <t>2022/04/26 15:15:40</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.UnhandledAlertException: unexpected alert open: {Alert text : There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.}
+  (Session info: chrome=90.0.4430.72): There has been an error submitting your page.
+Ensure that you have:
+  - Specified all mandatory fields
+  - Specified all fields using the correct format
+Hover over the highlighted controls for a description of the error.
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [eeef3fe1cbb84e33b971a363ed7227a7, findElement {using=name, value=btncbmcc11}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:63474}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63474/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: eeef3fe1cbb84e33b971a363ed7227a7</t>
+  </si>
+  <si>
+    <t>2022/04/26 15:19:31</t>
   </si>
 </sst>
 </file>
@@ -723,7 +1060,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
@@ -1735,6 +2072,525 @@
         <v>67</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>104</v>
+      </c>
+      <c r="J94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>106</v>
+      </c>
+      <c r="J95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>33</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>108</v>
+      </c>
+      <c r="J96" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>110</v>
+      </c>
+      <c r="J97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>112</v>
+      </c>
+      <c r="J98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestResult.xlsx
+++ b/TestResult.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
   <si>
     <t>Policy No</t>
   </si>
@@ -668,6 +668,20 @@
   </si>
   <si>
     <t>2022/04/26 15:19:31</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.NoSuchElementException: no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='CntContentsDiv8']/table/tbody/tr/td[2]"}
+  (Session info: chrome=90.0.4430.72)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.1.3', revision: '7b1ebf28ef'
+System info: host: 'PF30N18N', ip: '192.168.1.106', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '18'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [da88eb2fbd9b2df1683e546ccabb61f1, findElement {using=xpath, value=//*[@id='CntContentsDiv8']/table/tbody/tr/td[2]}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 90.0.4430.72, chrome: {chromedriverVersion: 90.0.4430.24 (4c6d850f087da..., userDataDir: C:\Users\G992107\AppData\Lo...}, goog:chromeOptions: {debuggerAddress: localhost:54576}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:54576/devtoo..., se:cdpVersion: 90.0.4430.72, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:largeBlob: true, webauthn:virtualAuthenticators: true}
+Session ID: da88eb2fbd9b2df1683e546ccabb61f1</t>
+  </si>
+  <si>
+    <t>2022/04/28 08:25:28</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5D04AC-654E-4D05-B65A-1F6F01989EB7}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
@@ -2591,6 +2605,17 @@
         <v>119</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
